--- a/reports/sea_raw_data/quantity.xlsx
+++ b/reports/sea_raw_data/quantity.xlsx
@@ -20225,7 +20225,7 @@
         </is>
       </c>
       <c r="F707" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="708">
